--- a/Data/AllWI.xlsx
+++ b/Data/AllWI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <x:si>
     <x:t>Actions</x:t>
   </x:si>
@@ -34,7 +34,7 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>493371</x:t>
+    <x:t>862121</x:t>
   </x:si>
   <x:si>
     <x:t>Verify Account Position</x:t>
@@ -46,10 +46,10 @@
     <x:t>Open</x:t>
   </x:si>
   <x:si>
-    <x:t>2018-08-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176342</x:t>
+    <x:t>2019-01-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>907922</x:t>
   </x:si>
   <x:si>
     <x:t>Research Client Check Copy</x:t>
@@ -58,10 +58,55 @@
     <x:t>WI2</x:t>
   </x:si>
   <x:si>
-    <x:t>2019-02-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>979875</x:t>
+    <x:t>2017-01-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Generate Yearly Report for Vendor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WI4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>907792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>365333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Process Vendor Invoice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WI3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>959424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205065</x:t>
   </x:si>
   <x:si>
     <x:t>Calculate Client Security Hash</x:t>
@@ -70,775 +115,739 @@
     <x:t>WI5</x:t>
   </x:si>
   <x:si>
+    <x:t>2017-06-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>362432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>360622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>886452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>946005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>534602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>802691</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>791521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>667861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>961484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>466442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>784085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-12-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>875714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>692442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>681122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>783525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>347713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>565905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>742293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>987202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>942191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>863893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>741322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>895701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>796851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>846781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>895032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>631595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>767131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>562722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>823243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316582</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>378655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-07-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>942835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>457013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>617901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>780654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-12-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-05-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>661354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184421</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-11-11</x:t>
   </x:si>
   <x:si>
-    <x:t>644404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Generate Yearly Report for Vendor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WI4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-11-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>630574</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513773</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Process Vendor Invoice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WI3</x:t>
+    <x:t>496211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>697022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-12-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>487902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-07-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>664454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>734572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>547832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>346545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>687654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>566231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>349452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>888872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-07-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>970942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>349185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>711554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>918162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420724</x:t>
   </x:si>
   <x:si>
     <x:t>2018-02-20</x:t>
   </x:si>
   <x:si>
-    <x:t>179705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>674563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-05-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>907594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>730005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>982011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>506352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>964774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>529142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>545374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>956472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>538802</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535891</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>234961</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>774382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>802713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-12-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>381901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>778324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>362052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-09-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>572954</x:t>
+    <x:t>468052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>635952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>381782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551944</x:t>
   </x:si>
   <x:si>
     <x:t>2018-02-21</x:t>
   </x:si>
   <x:si>
-    <x:t>950191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>602265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>429673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>199411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>530975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>360461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-05-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>688825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-05-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>654875</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-02-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>783352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>841722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>680232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>416645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>594512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>392021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-05-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>782001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-08-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>818043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-08-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>562994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>841001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-11-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>985601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>568251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-09-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>552315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253632</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-12-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>821623</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-12-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>920355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>915821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>902212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-01-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>855074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-08-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>842332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>764102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328803</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>706214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>888161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>899322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>980014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-02-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>445112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-11-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>364172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>931531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>700832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-01-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>876072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-02-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>373393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-02-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>565121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>331462</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-05-29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>973862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>697134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Completed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>383182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-08-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>682851</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>547892</x:t>
-  </x:si>
-  <x:si>
-    <x:t>610531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>601141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>540502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-09-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>957233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>993714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-02-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333582</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>401954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>769671</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>611732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-01-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>591972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>678013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-07-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>663932</x:t>
-  </x:si>
-  <x:si>
-    <x:t>502984</x:t>
+    <x:t>723941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-10-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>338004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>609071</x:t>
   </x:si>
   <x:si>
     <x:t>2017-03-28</x:t>
   </x:si>
   <x:si>
-    <x:t>237031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-10-29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>906233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-25</x:t>
+    <x:t>834494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>969151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713301</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1260,117 +1269,117 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="B5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="B6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="B7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="B8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="B9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="B10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>12</x:v>
@@ -1382,131 +1391,131 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="B13" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="B14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="B15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="B16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="B17" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="B18" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="B19" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>7</x:v>
@@ -1518,92 +1527,92 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="B20" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="B21" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="B22" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="B23" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="B24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -1628,10 +1637,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>9</x:v>
@@ -1662,10 +1671,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>9</x:v>
@@ -1679,13 +1688,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>72</x:v>
@@ -1713,10 +1722,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>9</x:v>
@@ -1747,10 +1756,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>9</x:v>
@@ -1764,10 +1773,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>9</x:v>
@@ -1781,10 +1790,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>9</x:v>
@@ -1798,10 +1807,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>9</x:v>
@@ -1815,10 +1824,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>9</x:v>
@@ -1832,10 +1841,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>9</x:v>
@@ -1849,10 +1858,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>9</x:v>
@@ -1866,10 +1875,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>9</x:v>
@@ -1883,10 +1892,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>9</x:v>
@@ -1909,114 +1918,114 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="B43" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="B44" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="B45" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="B46" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="B47" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="B48" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="B49" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>7</x:v>
@@ -2028,114 +2037,114 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="B50" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="B51" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
       <x:c r="B52" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6">
       <x:c r="B53" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6">
       <x:c r="B54" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6">
       <x:c r="B55" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6">
       <x:c r="B56" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>7</x:v>
@@ -2147,29 +2156,29 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6">
       <x:c r="B57" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6">
       <x:c r="B58" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>7</x:v>
@@ -2181,63 +2190,63 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6">
       <x:c r="B59" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6">
       <x:c r="B60" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6">
       <x:c r="B61" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6">
       <x:c r="B62" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>12</x:v>
@@ -2249,29 +2258,29 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6">
       <x:c r="B63" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6">
       <x:c r="B64" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>7</x:v>
@@ -2283,148 +2292,148 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6">
       <x:c r="B65" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6">
       <x:c r="B66" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6">
       <x:c r="B67" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6">
       <x:c r="B68" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6">
       <x:c r="B69" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6">
       <x:c r="B70" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
       <x:c r="B71" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6">
       <x:c r="B72" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6">
       <x:c r="B73" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>7</x:v>
@@ -2436,12 +2445,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6">
       <x:c r="B74" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>16</x:v>
@@ -2453,165 +2462,165 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6">
       <x:c r="B75" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6">
       <x:c r="B76" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6">
       <x:c r="B77" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6">
       <x:c r="B78" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6">
       <x:c r="B79" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6">
       <x:c r="B80" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6">
       <x:c r="B81" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6">
       <x:c r="B82" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6">
       <x:c r="B83" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6">
       <x:c r="B84" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>12</x:v>
@@ -2623,12 +2632,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6">
       <x:c r="B85" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>12</x:v>
@@ -2640,165 +2649,165 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6">
       <x:c r="B86" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6">
       <x:c r="B87" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6">
       <x:c r="B88" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6">
       <x:c r="B89" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6">
       <x:c r="B90" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6">
       <x:c r="B91" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6">
       <x:c r="B92" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6">
       <x:c r="B93" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6">
       <x:c r="B94" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6">
       <x:c r="B95" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>7</x:v>
@@ -2810,12 +2819,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6">
       <x:c r="B96" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>12</x:v>
@@ -2827,97 +2836,97 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6">
       <x:c r="B97" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
         <x:v>198</x:v>
-      </x:c>
-      <x:c r="C97" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D97" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E97" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F97" s="0" t="s">
-        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6">
       <x:c r="B98" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6">
       <x:c r="B99" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6">
       <x:c r="B100" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6">
       <x:c r="B101" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:6">
       <x:c r="B102" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>12</x:v>
@@ -2929,165 +2938,165 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:6">
       <x:c r="B103" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:6">
       <x:c r="B104" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:6">
       <x:c r="B105" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:6">
       <x:c r="B106" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F106" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:6">
       <x:c r="B107" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F107" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:6">
       <x:c r="B108" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F108" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:6">
       <x:c r="B109" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:6">
       <x:c r="B110" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F110" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:6">
       <x:c r="B111" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F111" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:6">
       <x:c r="B112" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>12</x:v>
@@ -3099,80 +3108,80 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F112" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:6">
       <x:c r="B113" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F113" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:6">
       <x:c r="B114" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F114" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:6">
       <x:c r="B115" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F115" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:6">
       <x:c r="B116" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F116" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:6">
       <x:c r="B117" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>12</x:v>
@@ -3184,15 +3193,15 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F117" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:6">
       <x:c r="B118" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
         <x:v>8</x:v>
@@ -3201,296 +3210,313 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F118" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:6">
       <x:c r="B119" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F119" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:6">
       <x:c r="B120" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:6">
       <x:c r="B121" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F121" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:6">
       <x:c r="B122" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F122" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:6">
       <x:c r="B123" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F123" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:6">
       <x:c r="B124" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:6">
       <x:c r="B125" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F125" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:6">
       <x:c r="B126" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F126" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:6">
       <x:c r="B127" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F127" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:6">
       <x:c r="B128" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F128" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:6">
       <x:c r="B129" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F129" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:6">
       <x:c r="B130" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F130" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:6">
       <x:c r="B131" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F131" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:6">
       <x:c r="B132" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F132" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:6">
       <x:c r="B133" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F133" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:6">
       <x:c r="B134" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:6">
       <x:c r="B135" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F135" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:6">
+      <x:c r="B136" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
